--- a/experiment_results.xlsx
+++ b/experiment_results.xlsx
@@ -1,31 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sjtueducn-my.sharepoint.com/personal/geniustintin_sjtu_edu_cn/Documents/SJTU/AU7021 Optimization in Machine Learning and Control System/Assignments/Assignment04/Code/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_F25DC773A252ABDACC1048DC91D95A9A5BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4650EDD1-B2DD-42A5-B3A7-200E83167F58}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4245" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30240" windowHeight="13220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
     <t>Starting Point</t>
   </si>
@@ -39,10 +28,10 @@
     <t>Iterations</t>
   </si>
   <si>
-    <t>N(0,1)</t>
+    <t>learning rate</t>
   </si>
   <si>
-    <t>learning rate</t>
+    <t>N(0,1)</t>
   </si>
   <si>
     <t>Pseudo Inverse</t>
@@ -51,25 +40,368 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -77,9 +409,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -87,17 +661,61 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -146,7 +764,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -181,7 +799,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -355,31 +973,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.859375" customWidth="1"/>
+    <col min="3" max="3" width="10.5"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,10 +1007,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>0</v>
       </c>
@@ -404,16 +1018,16 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>1.31E-3</v>
+        <v>0.00131</v>
       </c>
       <c r="D2">
         <v>28</v>
       </c>
       <c r="E2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>5</v>
       </c>
@@ -421,16 +1035,16 @@
         <v>2000</v>
       </c>
       <c r="C3">
-        <v>1.42E-3</v>
+        <v>0.00142</v>
       </c>
       <c r="D3">
         <v>25</v>
       </c>
       <c r="E3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>10</v>
       </c>
@@ -438,33 +1052,33 @@
         <v>2000</v>
       </c>
       <c r="C4">
-        <v>1.0399999999999999E-3</v>
+        <v>0.00104</v>
       </c>
       <c r="D4">
         <v>26</v>
       </c>
       <c r="E4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>2000</v>
       </c>
       <c r="C5">
-        <v>1.2700000000000001E-3</v>
+        <v>0.00127</v>
       </c>
       <c r="D5">
         <v>30</v>
       </c>
       <c r="E5">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -475,7 +1089,7 @@
         <v>60614.99</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>0</v>
       </c>
@@ -483,16 +1097,16 @@
         <v>1000</v>
       </c>
       <c r="C7">
-        <v>1.5900000000000001E-3</v>
+        <v>0.00159</v>
       </c>
       <c r="D7">
         <v>87</v>
       </c>
       <c r="E7">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>5</v>
       </c>
@@ -500,16 +1114,16 @@
         <v>1000</v>
       </c>
       <c r="C8">
-        <v>1.49E-3</v>
+        <v>0.00149</v>
       </c>
       <c r="D8">
         <v>86</v>
       </c>
       <c r="E8">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>10</v>
       </c>
@@ -517,33 +1131,33 @@
         <v>1000</v>
       </c>
       <c r="C9">
-        <v>1.6299999999999999E-3</v>
+        <v>0.00163</v>
       </c>
       <c r="D9">
         <v>86</v>
       </c>
       <c r="E9">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>1000</v>
       </c>
       <c r="C10">
-        <v>1.5100000000000001E-3</v>
+        <v>0.00151</v>
       </c>
       <c r="D10">
         <v>89</v>
       </c>
       <c r="E10">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -554,7 +1168,7 @@
         <v>31003.017</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>0</v>
       </c>
@@ -562,16 +1176,16 @@
         <v>500</v>
       </c>
       <c r="C12">
-        <v>1.81E-3</v>
+        <v>0.00181</v>
       </c>
       <c r="D12">
         <v>275</v>
       </c>
       <c r="E12">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>5</v>
       </c>
@@ -579,16 +1193,16 @@
         <v>500</v>
       </c>
       <c r="C13">
-        <v>1.6800000000000001E-3</v>
+        <v>0.00168</v>
       </c>
       <c r="D13">
         <v>334</v>
       </c>
       <c r="E13">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>10</v>
       </c>
@@ -596,33 +1210,33 @@
         <v>500</v>
       </c>
       <c r="C14">
-        <v>1.82E-3</v>
+        <v>0.00182</v>
       </c>
       <c r="D14">
         <v>384</v>
       </c>
       <c r="E14">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <v>500</v>
       </c>
       <c r="C15">
-        <v>1.75E-3</v>
+        <v>0.00175</v>
       </c>
       <c r="D15">
         <v>310</v>
       </c>
       <c r="E15">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -630,89 +1244,169 @@
         <v>500</v>
       </c>
       <c r="C16">
-        <v>28352.128000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28352.128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>0</v>
       </c>
       <c r="B17">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="C17">
-        <v>16.242000000000001</v>
+        <v>0.00211</v>
       </c>
       <c r="D17">
-        <v>999</v>
+        <v>1803</v>
       </c>
       <c r="E17">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>5</v>
       </c>
       <c r="B18">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="C18">
-        <v>14.948</v>
+        <v>0.00202</v>
       </c>
       <c r="D18">
-        <v>999</v>
+        <v>1896</v>
       </c>
       <c r="E18">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>10</v>
       </c>
       <c r="B19">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="C19">
-        <v>15.692</v>
+        <v>0.00194</v>
       </c>
       <c r="D19">
-        <v>999</v>
+        <v>2183</v>
       </c>
       <c r="E19">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="C20">
-        <v>15.573</v>
+        <v>0.00206</v>
       </c>
       <c r="D20">
-        <v>999</v>
+        <v>1959</v>
       </c>
       <c r="E20">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B21">
+        <v>300</v>
+      </c>
+      <c r="C21">
+        <v>4331.2447</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
         <v>50</v>
       </c>
-      <c r="C21">
+      <c r="C22">
+        <v>16.242</v>
+      </c>
+      <c r="D22">
+        <v>999</v>
+      </c>
+      <c r="E22">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <v>14.948</v>
+      </c>
+      <c r="D23">
+        <v>999</v>
+      </c>
+      <c r="E23">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>50</v>
+      </c>
+      <c r="C24">
+        <v>15.692</v>
+      </c>
+      <c r="D24">
+        <v>999</v>
+      </c>
+      <c r="E24">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>50</v>
+      </c>
+      <c r="C25">
         <v>15.573</v>
       </c>
+      <c r="D25">
+        <v>999</v>
+      </c>
+      <c r="E25">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <v>15.573</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>